--- a/BasicOptimization/OptimizationOutputs.xlsx
+++ b/BasicOptimization/OptimizationOutputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\child\Documents\Flow_Lab\Onboarding\BasicOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01160ADA-2A44-431F-A4B3-4518F2E505EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF86F72-F68C-4763-9E6E-4B2655A69D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10780" xr2:uid="{C1485F64-6EA5-4EA4-B509-FCEDE7844C97}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Jacob Child</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Thrust</t>
   </si>
   <si>
-    <t>Minimizer</t>
-  </si>
-  <si>
     <t>Iterations</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Constraints</t>
   </si>
   <si>
-    <t>[0.02295918367346939, 3.7346938775510203]</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -85,22 +79,49 @@
     <t>Elites</t>
   </si>
   <si>
-    <t>[0.025, 4.408163265306122]</t>
-  </si>
-  <si>
     <t>|f(x) - f(x')| = 0.0 ≤ 1.0e-13</t>
   </si>
   <si>
-    <t>[0.01683673469387755, 3.9591836734693877]</t>
-  </si>
-  <si>
     <t>|f(x) - f(x')| = 0.0 ≤ 1.0e-14</t>
   </si>
   <si>
-    <t>[0.02295918367346939, 5.081632653061225]</t>
-  </si>
-  <si>
     <t>|f(x) - f(x')| = 0.0 ≤ 1.0e-15</t>
+  </si>
+  <si>
+    <t>OG vals:</t>
+  </si>
+  <si>
+    <t>[0.0,0.0]</t>
+  </si>
+  <si>
+    <t>Torque= .059</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>|f(x) - f(x')| = 0.0 ≤ 1.0e-16</t>
+  </si>
+  <si>
+    <t>|f(x) - f(x')| = 0.0 ≤ 1.0e-17</t>
+  </si>
+  <si>
+    <t>|f(x) - f(x')| = 0.0 ≤ 1.0e-18</t>
+  </si>
+  <si>
+    <t>|f(x) - f(x')| = 0.0 ≤ 1.0e-19</t>
+  </si>
+  <si>
+    <t>|f(x) - f(x')| = 0.0 ≤ 1.0e-20</t>
+  </si>
+  <si>
+    <t>Thrust = 3.943</t>
+  </si>
+  <si>
+    <t>Chord</t>
+  </si>
+  <si>
+    <t>Pitch</t>
   </si>
 </sst>
 </file>
@@ -150,9 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,190 +494,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FC121E-DC48-4B57-99A5-4B79701472D9}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D6" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.2959183673469299E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.7346938775510199</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="H6" s="2">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D7" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.4081632653061202</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D8" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.68367346938775E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.9591836734693802</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D6">
-        <v>5.12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
+      <c r="J8" s="2">
         <v>50</v>
       </c>
-      <c r="J6">
+      <c r="K8" s="2">
         <v>0.8</v>
       </c>
-      <c r="K6">
+      <c r="L8" s="2">
         <v>0.1</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D7">
-        <v>5.23</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.2959183673469299E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.0816326530612201</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7">
+      <c r="J9" s="2">
         <v>50</v>
       </c>
-      <c r="J7">
+      <c r="K9" s="2">
         <v>0.8</v>
       </c>
-      <c r="K7">
+      <c r="L9" s="2">
         <v>0.1</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D8">
-        <v>4.99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8">
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D10" s="2">
+        <v>3.923</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-1.4285714285714199</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2">
         <v>50</v>
       </c>
-      <c r="J8">
+      <c r="K10" s="2">
         <v>0.8</v>
       </c>
-      <c r="K8">
+      <c r="L10" s="2">
         <v>0.1</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D9">
-        <v>5.15</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D11" s="2">
+        <v>3.84</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-9.6938775510203995E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.36734693877551</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9">
+      <c r="H11" s="2">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2">
         <v>50</v>
       </c>
-      <c r="J9">
+      <c r="K11" s="2">
         <v>0.8</v>
       </c>
-      <c r="K9">
+      <c r="L11" s="2">
         <v>0.1</v>
       </c>
-      <c r="L9">
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D12" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.5918367346938702E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-0.530612244897959</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D13" s="2">
+        <v>3.9580000000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8.6734693877551002E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-0.530612244897959</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D14" s="2">
+        <v>3.968</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.2959183673469299E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-1.2040816326530599</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="2">
         <v>0</v>
       </c>
     </row>

--- a/BasicOptimization/OptimizationOutputs.xlsx
+++ b/BasicOptimization/OptimizationOutputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\child\Documents\Flow_Lab\Onboarding\BasicOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF86F72-F68C-4763-9E6E-4B2655A69D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD546335-A792-4AA0-A476-3CA63EC91BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10780" xr2:uid="{C1485F64-6EA5-4EA4-B509-FCEDE7844C97}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Jacob Child</t>
   </si>
@@ -122,6 +122,90 @@
   </si>
   <si>
     <t>Pitch</t>
+  </si>
+  <si>
+    <t>[2.4795302496858724, 1.9581098944194562, 2.1218148403885158, 2.773645190794444, 2.3533816356441677, 1.332467232247347, 2.0311940967214848, 2.436543804328681, 2.130378834966696, 2.7287590102587167, 2.5414824872892714, 2.321773309172543, 2.5718517876401044, 2.6720457219068012, 2.163209881837825, 1.5904077587843302, 2.3979734765054914, 2.180659691314257, 2.8140231360295203, 1.6340756703169117]</t>
+  </si>
+  <si>
+    <t>Torque</t>
+  </si>
+  <si>
+    <t>[0.05327539732903467, 0.059973879456467344, 0.05250106620517109, 0.05994809401331793, 0.059393837028502594, 0.05904432243032903, 0.05994708564957468, 0.059830103765425274, 0.04739509602478104, 0.0598910754953277, 0.059934494346224325, 0.05362902777186914, 0.05622887256800306, 0.059842969549113924, 0.05431143301891822, 0.051449113601421584, 0.0597479550677817, 0.059662049937357416, 0.05939418422464124, 0.05350644051199371]</t>
+  </si>
+  <si>
+    <t>[2.293765879332618, 2.594284380998376, 3.127106288383448, 2.6427212147860564, 2.308841655444387, 2.314099748611047, 2.2640969665814956, 2.437267238629791, 2.3482896388513006, 2.522732208119858, 2.448481173856355, 2.573082063116134, 2.3991850925754132, 2.0417507961638046, 2.738699394722396, 2.721354094126964, 2.8140217566103294, 2.3627523410684734, 2.403046457046247, 2.352439612306921]</t>
+  </si>
+  <si>
+    <t>[0.059506686094617844, 0.05996479304551991, 0.05973928797160359, 0.05979708930620982, 0.059799219666057155, 0.05953915001129088, 0.05993972385368837, 0.059508095959901, 0.05999882216366344, 0.05914922951420014, 0.05990256591977287, 0.059995451590239585, 0.05959550417801433, 0.05704999099886824, 0.059941904558758655, 0.05960367328687613, 0.05955220246878962, 0.05829291797346087, 0.05998868588108191, 0.05922960481578347]</t>
+  </si>
+  <si>
+    <t>Run 2*</t>
+  </si>
+  <si>
+    <t>Run1*</t>
+  </si>
+  <si>
+    <t>*Torque was limited to .06, 20 iteration for loop, with 200 and 300 individuals respectivley</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>Individual Run</t>
+  </si>
+  <si>
+    <t>minimizer</t>
+  </si>
+  <si>
+    <t>[0.011740332, 0.06, 0.011740332, 0.011740332, 0.011740332, 0.06, 0.06, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.06, 0.011740332, -0.3490658503988659, 2.0943951023931953, 2.0943951023931953, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, 2.0943951023931953, 2.0943951023931953, 2.0943951023931953, 2.0943951023931953, 2.0943951023931953, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, 0.26453086211218646, -0.3490658503988659, -0.3490658503988659, 0.2864628363696055, 0.2597922408065129, 0.26090181718199734, 0.254060389384462, 0.23322683730551924, 0.2650083267950222, -0.3490658503988659]</t>
+  </si>
+  <si>
+    <t>*lost, the plot was saved</t>
+  </si>
+  <si>
+    <t>Individual Run 2</t>
+  </si>
+  <si>
+    <t>[0.011740332, 0.011740332, 0.011740332, 0.06, 0.011740332, 0.06, 0.06, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.06, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.06, 0.011740332, 0.011740332, 0.06, 0.011740332, 0.011740332, 0.011740332, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, 2.0943951023931953, 2.0943951023931953, 2.0943951023931953, -0.3490658503988659, 2.0943951023931953, -0.3490658503988659, 2.0943951023931953, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, 0.3225302436134275, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, 0.2945441835094414, -0.3490658503988659, 0.33501497773428, -0.3490658503988659, 0.2875850436451073, 0.27003617959610426, 0.2703174127350639, 0.2572537523277809, -0.3490658503988659]</t>
+  </si>
+  <si>
+    <t>torque was limited to 1.25x bigger</t>
+  </si>
+  <si>
+    <t>chord was limited to .5*Rtip</t>
+  </si>
+  <si>
+    <t>Individual Run 3</t>
+  </si>
+  <si>
+    <t>torque was limited to 3x bigger</t>
+  </si>
+  <si>
+    <t>[0.011740332, 0.011740332, 0.06, 0.06, 0.011740332, 0.011740332, 0.06, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.06, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.06, 0.06, 0.011740332, 0.06, 0.011740332, 2.0943951023931953, -0.3490658503988659, -0.3490658503988659, 2.0943951023931953, 2.0943951023931953, -0.3490658503988659, 2.0943951023931953, -0.3490658503988659, 2.0943951023931953, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, 0.290919870682865, 0.27538388588680024, 0.40523028053090504, 0.39204696854937454, 0.2571781226093122, 0.3156243218551382, 2.0943951023931953]</t>
+  </si>
+  <si>
+    <t>Individual Run 4</t>
+  </si>
+  <si>
+    <t>torque was limited to .06</t>
+  </si>
+  <si>
+    <t>Percent Chord Change</t>
+  </si>
+  <si>
+    <t>Percent Pitch Change</t>
+  </si>
+  <si>
+    <t>0.011740332, 0.01524453722799652, 0.011740332, 0.09, 0.09, 0.011740332, 0.09, 0.09, 0.09, 0.011740332, 0.011740332, 0.09, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.09, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.014124340609005383, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 0.011740332, 1.3089969389957472, 1.3089969389957472, 1.3089969389957472, -0.3490658503988659, -0.3490658503988659, 1.3089969389957472, -0.3490658503988659, -0.3490658503988659, 1.3089969389957472, -0.3490658503988659, -0.3490658503988659, 0.48399233966961397, -0.3490658503988659, 1.3089969389957472, 0.2498296537060848, -0.3490658503988659, 0.5796215068437532, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, -0.3490658503988659, 0.10285905322555361, 0.24377066085828297, 0.2578540763677095, 0.27027606869088433, 0.23021285938054756, -0.2985364363242825</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
   </si>
 </sst>
 </file>
@@ -151,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -180,6 +270,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FC121E-DC48-4B57-99A5-4B79701472D9}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,6 +962,230 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-0.26131100000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.24990000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-0.20757</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.24936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.47260000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1.9883</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-0.36470000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="4">
+        <v>-1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
@@ -878,5 +1194,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>